--- a/tables/TableS5_troell_constraints.xlsx
+++ b/tables/TableS5_troell_constraints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDCD476-C5D1-F649-92CB-A67229E0413E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8864953-9244-CD49-B574-349C9F2CEE91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="25040" windowHeight="14500" xr2:uid="{40B5839E-4A2A-CA42-A064-85E060D3B290}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="25040" windowHeight="14500" xr2:uid="{40B5839E-4A2A-CA42-A064-85E060D3B290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,23 +39,34 @@
     <t>"Feed development will ultimately constrain whether any fed aquaculture can expand sustainably in the future. Including this factor as a superimposed layer in Gentry and colleagues’ sea-space model would reveal that feed availability and feed costs will prevent further expansions of mariculture long before any ocean space limitations are reached."</t>
   </si>
   <si>
-    <t>We explicitly account for feed limitations through scenarios that evaluate the consequences of improving current feed technology (i.e., improving food conversion ratiosFCRs while lowering the fish mean and fish oil components FM/FO in feed, feed practices (i.e., eliminating the use of marine ingredients in freshwater aquaculture feed), and feed distribution (i.e., allowing a greater number of countries to use fish feed for mariculture production.</t>
-  </si>
-  <si>
     <t>"Gentry et al. join others in pointing out that capital and operating costs can be high for offshore aquaculture. These costs influence species choice and may also affect who will have access to the products of ocean aquaculture."</t>
   </si>
   <si>
-    <t>We explicitly calculate the cost of mariculture production in every evaluated grid cell and assume that mariculture will only occur in profitable areas. We evaluate scenarios in which our cost model overestimates costs by 25% or underestimates costs by 25%, 50% or 100%.</t>
-  </si>
-  <si>
-    <t>We model the potential for sustainable bivalve mariculture that has minimal impacts on ecosystems and wild fisheries by limiting the amount of area that a country can develop for mariculture to XXXX and by limiting the stocking density consistent with best practices. We added a line in our revised manuscript specifying that our lower stocking density assumption aims at reducing potential negative environmental impacts of mariculture and reducing potential tradeoffs with fisheries by preventing overgrazing of primary productivity. We note that bivalves can enhance primary productivity by increased nutrient recycling, and hence could actually improve wild fisheries in some settings (Prins and Smaal, 1994). </t>
+    <t>We explicitly model sustainable bivalve mariculture with minimal impacts on marine ecosystems and wild fisheries by employing precautionary stocking densities equivalent to half of California’s (USA) guidelines. Furthermore, we derive an ecosystem-wide carrying capacity for cultured bivalves using the review and carrying capacity indices of Smaal and van Duren (2019) and find that few of the 232 Marine Ecoregions of the World (MEOWs) would exhibit cultured bivalve densities above this carrying capacity in any of the evaluated mariculture development scenarios. The rare instances in which bivalve density exceeded these thresholds could be avoided through effective planning and coordination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We explicitly account for feed limitations in scenarios with different levels of (1) feed availability as a result of fisheries management (business-as-usual and climate-adaptive management); (2) feed conversion efficiency as a result of technological innovations (moderate and substantial technological advances); and (3) feed distribution as a result of mariculture development patterns (current, proportion, offset-based, and optimum development patterns). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We explicitly calculate the cost of mariculture production (i.e., upfront capital costs of vessels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and equipment and annual operating costs of maintenance, wages, fuel, feed, and insurance) in every evaluated grid cell and assume that mariculture will only occur in profitable areas.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +87,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,15 +121,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -126,8 +134,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,7 +454,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,33 +482,33 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="84" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
